--- a/MarsCompetition/ExcelData/ManageListing.xlsx
+++ b/MarsCompetition/ExcelData/ManageListing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industry Connect\Projects\SkillShare and Manage Listing\MarsCompetitionTask\ConsoleApp1\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industry Connect\Projects\SkillShare and Manage Listing\MarsCompetitionTask\MarsCompetition\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4620C3-C9E8-4E31-8CC5-BD8A65B93B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8CA0D8-73F9-4489-9E3C-516BDF58993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -479,15 +479,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E311D0E4-0E47-4FAB-9703-0D19C391F422}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D35E39-30E4-4226-92F7-1CFDA38BEFFB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
